--- a/calc/doc/UnitTestData.xlsx
+++ b/calc/doc/UnitTestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="11340" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="11340" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="validateInputFormula" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="96">
   <si>
     <t>[IN]formula</t>
     <phoneticPr fontId="1"/>
@@ -360,10 +360,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>array</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>sp</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -413,6 +409,62 @@
   </si>
   <si>
     <t>[IN]stack</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stack[0]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stack[1]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stack</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>spTemp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[IN]operator</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[OUT]arrayResult</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[OUT]arrayTempReuslt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>+/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>\0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>arrayTemp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -904,63 +956,63 @@
         <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" t="s">
         <v>72</v>
       </c>
-      <c r="C11" t="s">
-        <v>73</v>
-      </c>
       <c r="D11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" t="s">
         <v>72</v>
       </c>
-      <c r="C12" t="s">
-        <v>73</v>
-      </c>
       <c r="D12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" t="s">
         <v>80</v>
-      </c>
-      <c r="D13" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" t="s">
         <v>72</v>
       </c>
-      <c r="C14" t="s">
-        <v>73</v>
-      </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1497,8 +1549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="A1:E2"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1508,7 +1560,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s">
         <v>63</v>
@@ -1558,7 +1610,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s">
         <v>63</v>
@@ -1599,25 +1651,78 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:D1"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="13.625" style="2" customWidth="1"/>
+    <col min="2" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="18.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="25.625" style="2" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s">
+        <v>85</v>
+      </c>
       <c r="C1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1625,9 +1730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1636,10 +1739,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" t="s">
         <v>69</v>
-      </c>
-      <c r="B1" t="s">
-        <v>70</v>
       </c>
       <c r="C1" t="s">
         <v>65</v>
@@ -1670,39 +1773,45 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" t="s">
         <v>69</v>
       </c>
-      <c r="B1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>65</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" t="s">
+        <v>11.5</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>11.5</v>
+      </c>
+      <c r="E2" t="s">
         <v>32</v>
       </c>
     </row>

--- a/calc/doc/UnitTestData.xlsx
+++ b/calc/doc/UnitTestData.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="95">
   <si>
     <t>[IN]formula</t>
     <phoneticPr fontId="1"/>
@@ -444,14 +444,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>[OUT]arrayTempReuslt</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>+/</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>\0</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -464,7 +456,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/</t>
+    <t>*/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/,*,</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1651,10 +1647,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1662,12 +1658,11 @@
     <col min="1" max="1" width="13.625" style="2" customWidth="1"/>
     <col min="2" max="3" width="15.375" customWidth="1"/>
     <col min="4" max="4" width="18.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="25.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B1" t="s">
         <v>85</v>
@@ -1678,31 +1673,25 @@
       <c r="D1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>87</v>
       </c>
@@ -1713,10 +1702,7 @@
         <v>88</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/calc/doc/UnitTestData.xlsx
+++ b/calc/doc/UnitTestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="11340" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="11340" firstSheet="8" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="validateInputFormula" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="popDouble" sheetId="11" r:id="rId9"/>
     <sheet name="toPolishNotation" sheetId="2" r:id="rId10"/>
     <sheet name="calcPolishNotation" sheetId="3" r:id="rId11"/>
-    <sheet name="validatecalcResult" sheetId="4" r:id="rId12"/>
+    <sheet name="calcFormula (2)" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
   <si>
     <t>[IN]formula</t>
     <phoneticPr fontId="1"/>
@@ -56,18 +56,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>[IN]calcResult</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>errorMessage</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>errorMessage</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>[IN]polishFormula</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -92,19 +84,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>null</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>false</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>false</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>true</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -163,20 +143,6 @@
     <t>[正常系]</t>
   </si>
   <si>
-    <t>[正常系]255桁</t>
-    <rPh sb="1" eb="3">
-      <t>セイジョウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ケタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>null</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>[正常系]</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -220,10 +186,6 @@
   </si>
   <si>
     <t>1-234</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1 234-</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -461,6 +423,26 @@
   </si>
   <si>
     <t>/,*,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[Stub]checkValidFormula</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゼロ乗算が行われました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[OUT]calcErrorMess</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -510,7 +492,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -518,9 +500,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -809,206 +788,248 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="18.125" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="2" customWidth="1"/>
-    <col min="3" max="3" width="41.75" customWidth="1"/>
-    <col min="4" max="4" width="22.375" customWidth="1"/>
+    <col min="2" max="3" width="33.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="41.75" customWidth="1"/>
+    <col min="5" max="5" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+        <v>88</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" t="s">
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>111</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
+        <v>89</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
+        <v>89</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>76</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="B14" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" t="s">
-        <v>72</v>
+        <v>89</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="D14" t="s">
-        <v>74</v>
+        <v>64</v>
+      </c>
+      <c r="E14" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1038,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -1046,46 +1067,46 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
         <v>35</v>
       </c>
-      <c r="B2" t="s">
-        <v>43</v>
-      </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="4" t="s">
-        <v>36</v>
+      <c r="A3" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1099,8 +1120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1112,10 +1133,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -1123,57 +1144,57 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B2">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3">
         <v>-233</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1184,74 +1205,160 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.375" customWidth="1"/>
-    <col min="2" max="2" width="20.25" style="2" customWidth="1"/>
-    <col min="3" max="3" width="29.75" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="1" max="1" width="22" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="3" max="3" width="18.875" customWidth="1"/>
+    <col min="4" max="4" width="25.25" customWidth="1"/>
+    <col min="5" max="5" width="22.875" customWidth="1"/>
+    <col min="6" max="6" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
       </c>
       <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>121</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="3">
-        <v>1.2345678901234501E+254</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>2.5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6">
+        <v>1.22222222222222E+16</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="3">
-        <v>1.23456789012345E+255</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1264,9 +1371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1288,24 +1393,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
@@ -1313,26 +1418,27 @@
         <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1341,7 +1447,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E5"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1349,22 +1455,22 @@
     <col min="1" max="1" width="22" style="2" customWidth="1"/>
     <col min="2" max="2" width="17.125" customWidth="1"/>
     <col min="3" max="3" width="18.875" customWidth="1"/>
-    <col min="4" max="4" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="22.875" customWidth="1"/>
     <col min="5" max="5" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -1372,7 +1478,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B2">
         <v>11</v>
@@ -1384,12 +1490,12 @@
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B3">
         <v>11</v>
@@ -1401,12 +1507,12 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B4">
         <v>11</v>
@@ -1418,15 +1524,15 @@
         <v>121</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -1435,7 +1541,7 @@
         <v>2.5</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1460,10 +1566,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -1471,68 +1577,68 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1545,7 +1651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
@@ -1556,16 +1662,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -1576,16 +1682,16 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1606,16 +1712,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -1635,7 +1741,7 @@
         <v>13.5</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1649,7 +1755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1662,16 +1768,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -1679,30 +1785,30 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1725,13 +1831,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1739,16 +1845,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B2">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1769,16 +1875,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -1798,7 +1904,7 @@
         <v>11.5</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/calc/doc/UnitTestData.xlsx
+++ b/calc/doc/UnitTestData.xlsx
@@ -9,21 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="11340" firstSheet="8" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="10080" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="validateInputFormula" sheetId="1" r:id="rId1"/>
     <sheet name="checkValidFormula" sheetId="5" r:id="rId2"/>
-    <sheet name="calcFormula" sheetId="6" r:id="rId3"/>
-    <sheet name="calcPriority" sheetId="7" r:id="rId4"/>
-    <sheet name="pushChar" sheetId="8" r:id="rId5"/>
-    <sheet name="pushDouble" sheetId="10" r:id="rId6"/>
-    <sheet name="pushOperator" sheetId="12" r:id="rId7"/>
-    <sheet name="popChar" sheetId="9" r:id="rId8"/>
-    <sheet name="popDouble" sheetId="11" r:id="rId9"/>
-    <sheet name="toPolishNotation" sheetId="2" r:id="rId10"/>
-    <sheet name="calcPolishNotation" sheetId="3" r:id="rId11"/>
-    <sheet name="calcFormula (2)" sheetId="13" r:id="rId12"/>
+    <sheet name="toPolishNotation" sheetId="2" r:id="rId3"/>
+    <sheet name="pushOperator" sheetId="12" r:id="rId4"/>
+    <sheet name="calcPolishNotation" sheetId="3" r:id="rId5"/>
+    <sheet name="calcFormula" sheetId="6" r:id="rId6"/>
+    <sheet name="calcPriority" sheetId="7" r:id="rId7"/>
+    <sheet name="pushChar" sheetId="8" r:id="rId8"/>
+    <sheet name="popChar" sheetId="9" r:id="rId9"/>
+    <sheet name="pushDouble" sheetId="10" r:id="rId10"/>
+    <sheet name="popDouble" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="98">
   <si>
     <t>[IN]formula</t>
     <phoneticPr fontId="1"/>
@@ -80,10 +79,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>エラー：桁数が多すぎます。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>false</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -438,11 +433,75 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ゼロ乗算が行われました。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[OUT]calcErrorMess</t>
+    <t>*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1000000000,1000000000,*,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[正常系]</t>
+    <rPh sb="1" eb="3">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[異常系]</t>
+    <rPh sb="1" eb="3">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[異常系 ]</t>
+    <rPh sb="1" eb="3">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0/0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[正常系]ゼロ除算は、計算時に検証</t>
+    <rPh sb="1" eb="3">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョザン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケンショウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -492,7 +551,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -506,6 +565,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -788,10 +850,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -799,7 +861,7 @@
     <col min="1" max="1" width="18.125" customWidth="1"/>
     <col min="2" max="3" width="33.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="41.75" customWidth="1"/>
-    <col min="5" max="5" width="22.375" customWidth="1"/>
+    <col min="5" max="5" width="27.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
@@ -807,7 +869,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -821,215 +883,230 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="4"/>
       <c r="E6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>111</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9">
-        <v>111</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="D12" t="s">
         <v>63</v>
       </c>
-      <c r="D11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="E12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
+      <c r="B13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="B14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" t="s">
         <v>63</v>
       </c>
-      <c r="D12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" t="s">
-        <v>66</v>
+      <c r="E15" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1041,71 +1118,62 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="19.625" customWidth="1"/>
-    <col min="2" max="2" width="22.375" customWidth="1"/>
-    <col min="3" max="3" width="19.625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="4">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>13.5</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>13.5</v>
+      </c>
+      <c r="E3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1118,247 +1186,61 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="17.625" customWidth="1"/>
-    <col min="2" max="2" width="20.375" customWidth="1"/>
-    <col min="3" max="3" width="19.625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>31</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>12.5</v>
       </c>
       <c r="B2">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3">
-        <v>-233</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4">
+        <v>11.5</v>
+      </c>
+      <c r="C2">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6">
+      <c r="D2">
+        <v>11.5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="4">
         <v>0</v>
       </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="22" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
-    <col min="3" max="3" width="18.875" customWidth="1"/>
-    <col min="4" max="4" width="25.25" customWidth="1"/>
-    <col min="5" max="5" width="22.875" customWidth="1"/>
-    <col min="6" max="6" width="21.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2">
-        <v>11</v>
-      </c>
-      <c r="C2">
-        <v>11</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="B3" s="4">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3">
-        <v>11</v>
-      </c>
       <c r="C3">
-        <v>11</v>
-      </c>
-      <c r="D3" s="4">
         <v>0</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4">
-        <v>11</v>
-      </c>
-      <c r="C4">
-        <v>11</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>121</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>2.5</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6">
-        <v>1.22222222222222E+16</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
+      <c r="D3" s="4"/>
+      <c r="E3" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1393,24 +1275,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
@@ -1418,21 +1300,21 @@
         <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1444,132 +1326,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="22" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
-    <col min="3" max="3" width="18.875" customWidth="1"/>
-    <col min="4" max="4" width="22.875" customWidth="1"/>
-    <col min="5" max="5" width="21.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2">
-        <v>11</v>
-      </c>
-      <c r="C2">
-        <v>11</v>
-      </c>
-      <c r="D2">
-        <v>22</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>11</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4">
-        <v>11</v>
-      </c>
-      <c r="C4">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>121</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>2.5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="14.125" customWidth="1"/>
-    <col min="2" max="2" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="19.625" customWidth="1"/>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="3" max="3" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -1577,171 +1352,46 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
+      <c r="A3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="4" max="4" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>11</v>
-      </c>
-      <c r="B2">
-        <v>13.5</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>13.5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1751,7 +1401,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -1768,16 +1418,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" t="s">
         <v>77</v>
       </c>
-      <c r="C1" t="s">
-        <v>78</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -1785,30 +1435,30 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1818,11 +1468,433 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="17.625" customWidth="1"/>
+    <col min="2" max="2" width="20.375" customWidth="1"/>
+    <col min="3" max="3" width="19.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3">
+        <v>-233</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="22" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="3" max="3" width="18.875" customWidth="1"/>
+    <col min="4" max="4" width="22.875" customWidth="1"/>
+    <col min="5" max="5" width="21.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>121</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>2.5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6">
+        <v>1E+16</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="2" max="2" width="14.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="5">
+        <v>1.23456789012345E+255</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>256</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1.23456789012345E+255</v>
+      </c>
+      <c r="E4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1831,13 +1903,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1845,66 +1917,28 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>12.5</v>
-      </c>
-      <c r="B2">
-        <v>11.5</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>11.5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="4">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/calc/doc/UnitTestData.xlsx
+++ b/calc/doc/UnitTestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="10080" firstSheet="5" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="10080" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="validateInputFormula" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="98">
   <si>
     <t>[IN]formula</t>
     <phoneticPr fontId="1"/>
@@ -1188,7 +1188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -1568,8 +1568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1668,10 +1668,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B6">
-        <v>1E+16</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1679,16 +1679,13 @@
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" t="s">
-        <v>93</v>
-      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1E+16</v>
       </c>
       <c r="C7">
         <v>1</v>

--- a/calc/doc/UnitTestData.xlsx
+++ b/calc/doc/UnitTestData.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="97">
   <si>
     <t>[IN]formula</t>
     <phoneticPr fontId="1"/>
@@ -430,10 +430,6 @@
   </si>
   <si>
     <t>false</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>*</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -943,17 +939,17 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
@@ -1157,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -1240,7 +1236,7 @@
       </c>
       <c r="D3" s="4"/>
       <c r="E3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1551,7 +1547,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1566,10 +1562,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1668,7 +1664,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1677,20 +1673,6 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7">
-        <v>1E+16</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
         <v>0</v>
       </c>
     </row>
@@ -1842,7 +1824,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -1876,7 +1858,7 @@
         <v>1.23456789012345E+255</v>
       </c>
       <c r="E4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1935,7 +1917,7 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/calc/doc/UnitTestData.xlsx
+++ b/calc/doc/UnitTestData.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="96">
   <si>
     <t>[IN]formula</t>
     <phoneticPr fontId="1"/>
@@ -434,10 +434,6 @@
   </si>
   <si>
     <t>1000000000,1000000000,*,</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -939,17 +935,17 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
@@ -1153,7 +1149,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -1236,7 +1232,7 @@
       </c>
       <c r="D3" s="4"/>
       <c r="E3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1562,10 +1558,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1660,20 +1656,6 @@
       </c>
       <c r="E5" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1824,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -1858,7 +1840,7 @@
         <v>1.23456789012345E+255</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1917,7 +1899,7 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/calc/doc/UnitTestData.xlsx
+++ b/calc/doc/UnitTestData.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="98">
   <si>
     <t>[IN]formula</t>
     <phoneticPr fontId="1"/>
@@ -494,6 +494,14 @@
     <rPh sb="15" eb="17">
       <t>ケンショウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1558,10 +1566,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1656,6 +1664,34 @@
       </c>
       <c r="E5" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7">
+        <v>1E+17</v>
+      </c>
+      <c r="C7">
+        <v>1E+17</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/calc/doc/UnitTestData.xlsx
+++ b/calc/doc/UnitTestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="10080" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="10080" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="validateInputFormula" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="103">
   <si>
     <t>[IN]formula</t>
     <phoneticPr fontId="1"/>
@@ -433,10 +433,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1000000000,1000000000,*,</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>[正常系]</t>
     <rPh sb="1" eb="3">
       <t>セイジョウ</t>
@@ -497,11 +493,50 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[正常系]</t>
+    <rPh sb="1" eb="3">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2147483647,2147483647,+,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[異常系]</t>
+    <rPh sb="1" eb="3">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[OUT]calcErrorMess</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラー：桁数が多すぎます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゼロ除算が行われました。</t>
+    <rPh sb="2" eb="4">
+      <t>ジョザン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -551,7 +586,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -568,6 +603,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -943,17 +981,17 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
@@ -1157,7 +1195,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -1240,7 +1278,7 @@
       </c>
       <c r="D3" s="4"/>
       <c r="E3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1473,7 +1511,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1551,10 +1589,13 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B7">
         <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1566,10 +1607,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1577,11 +1618,11 @@
     <col min="1" max="1" width="22" style="2" customWidth="1"/>
     <col min="2" max="2" width="17.125" customWidth="1"/>
     <col min="3" max="3" width="18.875" customWidth="1"/>
-    <col min="4" max="4" width="22.875" customWidth="1"/>
-    <col min="5" max="5" width="21.375" customWidth="1"/>
+    <col min="4" max="5" width="22.875" customWidth="1"/>
+    <col min="6" max="6" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>45</v>
       </c>
@@ -1595,10 +1636,13 @@
         <v>6</v>
       </c>
       <c r="E1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>49</v>
       </c>
@@ -1611,11 +1655,14 @@
       <c r="D2">
         <v>22</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="6">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>48</v>
       </c>
@@ -1628,11 +1675,14 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>50</v>
       </c>
@@ -1645,11 +1695,14 @@
       <c r="D4">
         <v>121</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>51</v>
       </c>
@@ -1662,41 +1715,77 @@
       <c r="D5">
         <v>2.5</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>2147483647</v>
       </c>
       <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>2147483647</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
         <v>1</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7">
-        <v>1E+17</v>
-      </c>
-      <c r="C7">
-        <v>1E+17</v>
-      </c>
       <c r="D7">
         <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8">
+        <v>2147483648</v>
+      </c>
+      <c r="C8">
+        <v>2147483648</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1842,7 +1931,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -1876,7 +1965,7 @@
         <v>1.23456789012345E+255</v>
       </c>
       <c r="E4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1935,7 +2024,7 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
